--- a/data_process/xlsx/jongno_A1.xlsx
+++ b/data_process/xlsx/jongno_A1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,21 +469,26 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>일도씨닭갈비 광화문점</t>
+          <t>살롱순라</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>일도씨닭갈비</t>
+          <t>양식</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,54 +498,64 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 136 지하 2층</t>
+          <t>서울 종로구 율곡로10길 75 살롱순라</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02-3789-9007</t>
+          <t>0507-1414-0084</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1132899071/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142137771</t>
+          <t>https://pcmap.place.naver.com/restaurant/1266673496/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=2&amp;x=126.99169360025445&amp;y=37.5741979997707&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>야젠 1호점</t>
+          <t>이태리양조장 종각역점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 종로31길 10</t>
+          <t>서울 종로구 삼일대로17길 50 1층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1400-1485</t>
+          <t>0507-1303-2760</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37633182/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142139768</t>
+          <t>https://pcmap.place.naver.com/restaurant/1708196505/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=2&amp;x=126.98479072417122&amp;y=37.56925362142487&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -577,7 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37256672/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142141128</t>
+          <t>https://pcmap.place.naver.com/restaurant/37256672/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97891450000002&amp;y=37.57099589999999&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -594,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -614,24 +634,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1021505576/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142142869</t>
+          <t>https://pcmap.place.naver.com/restaurant/1021505576/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98947753400124&amp;y=37.57354667960782&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>육랩 종로점</t>
+          <t>우래옥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>냉면</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,34 +666,39 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 우정국로2길 42 3층 육랩</t>
+          <t>서울 중구 창경궁로 62-29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-722-3145</t>
+          <t>02-2265-0151</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1450644151/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142144173</t>
+          <t>https://pcmap.place.naver.com/restaurant/11679381/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99870290000301&amp;y=37.56826979999988&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>광화문미진</t>
+          <t>익선잡방</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>브런치</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,29 +708,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 19</t>
+          <t>서울 종로구 수표로28길 17-21 익선잡방</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-730-6198</t>
+          <t>0507-1313-3418</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11680222/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142145183</t>
+          <t>https://pcmap.place.naver.com/restaurant/1767890367/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98947221497131&amp;y=37.57339806664397&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>익선잡방</t>
+          <t>광화문미진</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>브런치</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,34 +750,39 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 17-21 익선잡방</t>
+          <t>서울 종로구 종로 19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1313-3418</t>
+          <t>02-730-6198</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1767890367/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142146803</t>
+          <t>https://pcmap.place.naver.com/restaurant/11680222/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9798986&amp;y=37.5705485&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>우래옥</t>
+          <t>살롱순라</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>냉면</t>
+          <t>양식</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,39 +792,44 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 중구 창경궁로 62-29</t>
+          <t>서울 종로구 율곡로10길 75 살롱순라</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02-2265-0151</t>
+          <t>0507-1414-0084</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11679381/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142148253</t>
+          <t>https://pcmap.place.naver.com/restaurant/1266673496/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99169360025445&amp;y=37.5741979997707&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>스케줄오스테리아</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>양식</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,135 +844,155 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1082121714/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142149734</t>
+          <t>https://pcmap.place.naver.com/restaurant/1082121714/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9823089&amp;y=37.568377&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>순대실록 대학로본점</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>순대,순댓국</t>
+          <t>육랩 종로점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>894</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 127 우성빌딩</t>
+          <t>서울 종로구 우정국로2길 42 3층 육랩</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1407-5338</t>
+          <t>02-722-3145</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/20148711/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142151688</t>
+          <t>https://pcmap.place.naver.com/restaurant/1450644151/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9854065&amp;y=37.5694552&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>월가갈비</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>육류,고기요리</t>
+          <t>다운타우너 광화문</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>206</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로18길 22 1층</t>
+          <t>서울 중구 세종대로 136 SFC몰 B1층 다운타우너 광화문</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1368-9414</t>
+          <t>0507-1480-7292</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1820419594/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142153384</t>
+          <t>https://pcmap.place.naver.com/restaurant/1232696474/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97827010000006&amp;y=37.56842460000003&amp;timestamp=202309071750</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>간판없는가게</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>더 멜란지</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>411</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 36 1층 간판없는가게</t>
+          <t>서울 종로구 돈화문로 60 1층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1427-1042</t>
+          <t>0507-1442-7844</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/268542013/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142154621</t>
+          <t>https://pcmap.place.naver.com/restaurant/1250488411/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9913906&amp;y=37.5738701&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>살롱순라</t>
+          <t>순대실록 대학로본점</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>순대,순댓국</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,34 +1002,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 율곡로10길 75 살롱순라</t>
+          <t>서울 종로구 동숭길 127 우성빌딩</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1414-0084</t>
+          <t>0507-1407-5338</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1266673496/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142156179</t>
+          <t>https://pcmap.place.naver.com/restaurant/20148711/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003022462663&amp;y=37.5832808139434&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>최대감네</t>
+          <t>온천집</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>샤브샤브</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -974,34 +1044,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동8길 12-3</t>
+          <t>서울 종로구 돈화문로11나길 31-8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1401-9355</t>
+          <t>0507-1378-8218</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/19882235/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142157120</t>
+          <t>https://pcmap.place.naver.com/restaurant/1113085292/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98980578898276&amp;y=37.5740315119577&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>온천집</t>
+          <t>간판없는가게</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>샤브샤브</t>
+          <t>양식</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,76 +1086,86 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 31-8</t>
+          <t>서울 종로구 돈화문로11다길 36 1층 간판없는가게</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1378-8218</t>
+          <t>0507-1427-1042</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1113085292/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142158440</t>
+          <t>https://pcmap.place.naver.com/restaurant/268542013/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9902802&amp;y=37.5738066&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>르템플</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>웜비어위캔드</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 중구 충무로7길 2 1층</t>
+          <t>서울 중구 청계천로 184 2층</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02-2263-7575</t>
+          <t>0507-1488-0392</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1328581940/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142159327</t>
+          <t>https://pcmap.place.naver.com/restaurant/1489017764/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9981855&amp;y=37.5686381&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>카린지린가네스낵바 광화문점</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>일식당</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>776</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,7 +1180,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1256953387/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142160902</t>
+          <t>https://pcmap.place.naver.com/restaurant/1256953387/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9807512&amp;y=37.5718671&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1207,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>799</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1132,229 +1222,264 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1574607459/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142162378</t>
+          <t>https://pcmap.place.naver.com/restaurant/1574607459/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9905559&amp;y=37.5728986&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>청기와타운 종로점</t>
+          <t>최대감네</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>육류,고기요리</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로17길 19 1층</t>
+          <t>서울 종로구 인사동8길 12-3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1370-7843</t>
+          <t>0507-1401-9355</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1518855883/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142165957</t>
+          <t>https://pcmap.place.naver.com/restaurant/19882235/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.986124&amp;y=37.574075&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>남포면옥</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>냉면</t>
+          <t>핵밥 대학로점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 중구 을지로3길 24</t>
+          <t>서울 종로구 대학로9길 22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02-777-2269</t>
+          <t>0507-1498-0739</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11664585/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142168620</t>
+          <t>https://pcmap.place.naver.com/restaurant/1811034860/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00073690000004&amp;y=37.581731300000015&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>갸우뚱</t>
+          <t>호선생전</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>중식당</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>896</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로9길 25</t>
+          <t>서울 종로구 종로32길 15 1층 호선생전</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1476-9037</t>
+          <t>0507-1342-2207</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1854089051/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142170070</t>
+          <t>https://pcmap.place.naver.com/restaurant/1244702491/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0011766&amp;y=37.5702235009121&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>삼삼뼈국 대학로점</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>남영동양문 종로점</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 129-10 1층, 2층</t>
+          <t>서울 종로구 삼일대로19길 22 1층~3층</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>070-8835-3450</t>
+          <t>02-737-5887</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1582796565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142171253</t>
+          <t>https://pcmap.place.naver.com/restaurant/1473695515/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.986364&amp;y=37.5696664&amp;timestamp=202309071751</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>플러스84</t>
+          <t>미도갈비</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>베트남음식</t>
+          <t>육류,고기요리</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동16길 6</t>
+          <t>서울 종로구 삼일대로15길 25 1층</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>02-735-1112</t>
+          <t>010-9741-9233</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/38515145/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142172373</t>
+          <t>https://pcmap.place.naver.com/restaurant/1264295690/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=2&amp;x=126.98614627818158&amp;y=37.56879187791152&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>우이락 광장시장점</t>
+          <t>반기다</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>퓨전음식</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 88 1층 46호</t>
+          <t>서울 종로구 익선동 166-52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1346-3283</t>
+          <t>0507-1314-6511</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1933078885/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142173870</t>
+          <t>https://pcmap.place.naver.com/restaurant/1337452676/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%8B%9D%EB%8B%B9&amp;from=map&amp;fromPanelNum=2&amp;x=126.98931396987683&amp;y=37.5736738452197&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -1391,56 +1516,66 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/36428555/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142175078</t>
+          <t>https://pcmap.place.naver.com/restaurant/36428555/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99991664157918&amp;y=37.57041098666043&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>오죽이네</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>닭요리</t>
+          <t>유메오뎅 을지로</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11가길 25</t>
+          <t>서울 중구 을지로12길 7 유메오뎅</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02-741-8874</t>
+          <t>0507-1412-1182</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/19418573/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142176690</t>
+          <t>https://pcmap.place.naver.com/restaurant/1560086919/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9913269&amp;y=37.5658534&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>대련집</t>
+          <t>오죽이네</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>칼국수,만두</t>
+          <t>닭요리</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1455,66 +1590,76 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 종로16길 37</t>
+          <t>서울 종로구 돈화문로11가길 25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02-2265-5349</t>
+          <t>02-741-8874</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11850242/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142177939</t>
+          <t>https://pcmap.place.naver.com/restaurant/19418573/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9908395&amp;y=37.5738124&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>진옥화할매원조닭한마리</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>닭요리</t>
+          <t>월가갈비</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>380</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 종로구 종로40가길 18</t>
+          <t>서울 중구 세종대로18길 22 1층</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-2275-9666</t>
+          <t>0507-1368-9414</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11619295/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142178857</t>
+          <t>https://pcmap.place.naver.com/restaurant/1820419594/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9783812&amp;y=37.5637232&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>남영동양문 종로점</t>
+          <t>진옥화할매원조닭한마리</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>육류,고기요리</t>
+          <t>닭요리</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1529,29 +1674,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로19길 22 1층~3층</t>
+          <t>서울 종로구 종로40가길 18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02-737-5887</t>
+          <t>02-2275-9666</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1473695515/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142180135</t>
+          <t>https://pcmap.place.naver.com/restaurant/11619295/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00573890000001&amp;y=37.57035&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>탭샵바 청계천삼일빌딩</t>
+          <t>오마카세 오사이초밥 광화문점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>초밥,롤</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,22 +1711,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 85 삼일빌딩 지하1층</t>
+          <t>서울 종로구 종로 19 르메이에르종로타운 2층 213호</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1331-4095</t>
+          <t>0507-1403-8822</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1619947949/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142181130</t>
+          <t>https://pcmap.place.naver.com/restaurant/1539404510/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9798606&amp;y=37.5708345&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -1613,24 +1768,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1638640485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142183722</t>
+          <t>https://pcmap.place.naver.com/restaurant/1638640485/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0004462&amp;y=37.5830363&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>유메오뎅 을지로</t>
+          <t>청와옥 을지로3가직영점</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>순대,순댓국</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1640,91 +1800,106 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 중구 을지로12길 7 유메오뎅</t>
+          <t>서울 중구 을지로 110 1층 1호</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1412-1182</t>
+          <t>0507-1448-1309</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1560086919/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142185520</t>
+          <t>https://pcmap.place.naver.com/restaurant/1319831936/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99006562158098&amp;y=37.56608276126371&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>육미안 혜화점</t>
+          <t>호호식당 익선</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>소고기구이</t>
+          <t>일식당</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 246-4 1층 육미안</t>
+          <t>서울 종로구 익선동 170-1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1449-1611</t>
+          <t>0507-1315-2384</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1718133788/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142186565</t>
+          <t>https://pcmap.place.naver.com/restaurant/1765213815/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99043790520706&amp;y=37.5730235777396&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>호호식당 익선</t>
+          <t>원조순희네빈대떡</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>일식당</t>
+          <t>전,빈대떡</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 종로구 익선동 170-1</t>
+          <t>서울 종로구 종로32길 5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0507-1315-2384</t>
+          <t>02-2264-5057</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1765213815/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142188194</t>
+          <t>https://pcmap.place.naver.com/restaurant/11619260/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00072940053323&amp;y=37.570594198214316&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1761,24 +1936,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11867483/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142189448</t>
+          <t>https://pcmap.place.naver.com/restaurant/11867483/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00234790000295&amp;y=37.58295749999991&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>오제제 광화문</t>
+          <t>을지로 골목집</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>일식당</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1788,71 +1968,81 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 136 지하 3층</t>
+          <t>서울 중구 수표로 48-3 1층</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0507-1389-4653</t>
+          <t>02-2275-0405</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1094455540/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142190421</t>
+          <t>https://pcmap.place.naver.com/restaurant/1141746485/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990142195643&amp;y=37.56558459302949&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>원조순희네빈대떡</t>
+          <t>장수하늘소</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>전,빈대떡</t>
+          <t>소고기구이</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 종로구 종로32길 5</t>
+          <t>서울 종로구 인사동길 34-1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-2264-5057</t>
+          <t>0507-1374-9929</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11619260/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142191530</t>
+          <t>https://pcmap.place.naver.com/restaurant/1725956672/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9856335999997&amp;y=37.573811800000065&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>모던샤브하우스 광화문D타워점</t>
+          <t>대련집</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>샤브샤브</t>
+          <t>칼국수,만두</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1862,34 +2052,39 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 종로3길 17 D타워 리플레이스 광화문 5층</t>
+          <t>서울 종로구 종로16길 37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-2251-8501</t>
+          <t>02-2265-5349</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1838141891/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142193194</t>
+          <t>https://pcmap.place.naver.com/restaurant/11850242/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9889029&amp;y=37.5683895&amp;timestamp=202309071752</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>달랭이</t>
+          <t>갸우뚱</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>곱창,막창,양</t>
+          <t>중식당</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1899,34 +2094,39 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 16 1층</t>
+          <t>서울 종로구 대학로9길 25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1400-3379</t>
+          <t>0507-1476-9037</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1050331365/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142194436</t>
+          <t>https://pcmap.place.naver.com/restaurant/1854089051/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00043728440009&amp;y=37.58161407875018&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>오마카세 오사이초밥 광화문점</t>
+          <t>금돼지식당</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>초밥,롤</t>
+          <t>돼지고기구이</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1936,34 +2136,39 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 19 르메이에르종로타운 2층 213호</t>
+          <t>서울 중구 다산로 149</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1403-8822</t>
+          <t>0507-1307-8750</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1539404510/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142195471</t>
+          <t>https://pcmap.place.naver.com/restaurant/37869877/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01169769999962&amp;y=37.55709329999999&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>이문설렁탕</t>
+          <t>남포면옥</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>곰탕,설렁탕</t>
+          <t>냉면</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1973,71 +2178,81 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 종로구 우정국로 38-13</t>
+          <t>서울 중구 을지로3길 24</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02-733-6526</t>
+          <t>02-777-2269</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11711983/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142198127</t>
+          <t>https://pcmap.place.naver.com/restaurant/11664585/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98159989411984&amp;y=37.56713963293418&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>금돼지식당</t>
+          <t>청기와타운 종로점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>돼지고기구이</t>
+          <t>육류,고기요리</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>391</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 중구 다산로 149</t>
+          <t>서울 종로구 삼일대로17길 19 1층</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1307-8750</t>
+          <t>0507-1370-7843</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37869877/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142199673</t>
+          <t>https://pcmap.place.naver.com/restaurant/1518855883/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9863525&amp;y=37.569093&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>화육계</t>
+          <t>모던샤브하우스 광화문D타워점</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>닭발</t>
+          <t>샤브샤브</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2047,34 +2262,39 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 중구 을지로14길 21 1층</t>
+          <t>서울 종로구 종로3길 17 D타워 리플레이스 광화문 5층</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1412-7743</t>
+          <t>02-2251-8501</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1101323127/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142200928</t>
+          <t>https://pcmap.place.naver.com/restaurant/1838141891/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9789694&amp;y=37.5710184&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>더 키친750</t>
+          <t>진작</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>이탈리아음식</t>
+          <t>일식당</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2084,145 +2304,165 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 80 2층</t>
+          <t>서울 중구 수표로12길 12</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1307-0554</t>
+          <t>0507-1364-4484</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37420979/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142202000</t>
+          <t>https://pcmap.place.naver.com/restaurant/1323525758/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99082164294768&amp;y=37.564030079834076&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>도마</t>
+          <t>최가네황소곱창</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>백반,가정식</t>
+          <t>곱창,막창,양</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동8길 6-1</t>
+          <t>서울 종로구 돈화문로4길 27 최가네황소곱창</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>02-733-9376</t>
+          <t>02-2274-6683</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/494627193/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142202989</t>
+          <t>https://pcmap.place.naver.com/restaurant/35418432/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99386450000031&amp;y=37.57013420000027&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>아베베베이커리 서울</t>
+          <t>한사발</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>921</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 201 1, 2, 3층</t>
+          <t>서울 종로구 대명길 19-8 1층</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0507-1381-7206</t>
+          <t>010-4642-3785</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1723070136/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142204724</t>
+          <t>https://pcmap.place.naver.com/restaurant/1754181863/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0006644&amp;y=37.5830352&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>해피니스 혜화대학로점</t>
+          <t>르템플</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>중식당</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로11길 40 세훈빌딩 1층</t>
+          <t>서울 중구 충무로7길 2 1층</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1422-1811</t>
+          <t>02-2263-7575</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1064882776/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142205713</t>
+          <t>https://pcmap.place.naver.com/restaurant/1328581940/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99243039999901&amp;y=37.5659073999969&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>진작</t>
+          <t>정원레스토랑 어반가든</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>일식당</t>
+          <t>스테이크,립</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2232,71 +2472,81 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 중구 수표로12길 12</t>
+          <t>서울 중구 정동길 12-15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1364-4484</t>
+          <t>02-777-2254</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1323525758/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142208503</t>
+          <t>https://pcmap.place.naver.com/restaurant/11736109/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9692254&amp;y=37.5674386&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>핏제리아오 대학로 본점</t>
+          <t>육미안 혜화점</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>피자</t>
+          <t>소고기구이</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 86 2, 3층</t>
+          <t>서울 종로구 창경궁로 246-4 1층 육미안</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1429-5005</t>
+          <t>0507-1449-1611</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/33646740/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142210022</t>
+          <t>https://pcmap.place.naver.com/restaurant/1718133788/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9993945&amp;y=37.5832566&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>을지로 골목집</t>
+          <t>이문설렁탕</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>곰탕,설렁탕</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2306,71 +2556,81 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 중구 수표로 48-3 1층</t>
+          <t>서울 종로구 우정국로 38-13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>02-2275-0405</t>
+          <t>02-733-6526</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1141746485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142211371</t>
+          <t>https://pcmap.place.naver.com/restaurant/11711983/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98390470000048&amp;y=37.572766399999615&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>청와옥 을지로3가직영점</t>
+          <t>고기하다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>순대,순댓국</t>
+          <t>육류,고기요리</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 110 1층 1호</t>
+          <t>서울 종로구 대학로 133-5 고기하다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1448-1309</t>
+          <t>0507-1462-9314</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1319831936/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142212346</t>
+          <t>https://pcmap.place.naver.com/restaurant/1773040934/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0013669&amp;y=37.5829527&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>파스타마켓</t>
+          <t>도마</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>스파게티,파스타전문</t>
+          <t>백반,가정식</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2380,54 +2640,64 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로11길 9-5 1층 파스타마켓</t>
+          <t>서울 종로구 인사동8길 6-1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0507-1436-7716</t>
+          <t>02-733-9376</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1121062750/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142213833</t>
+          <t>https://pcmap.place.naver.com/restaurant/494627193/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98583471585624&amp;y=37.5738126073718&amp;timestamp=202309071753</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>장수하늘소</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>소고기구이</t>
+          <t>탭샵바 청계천삼일빌딩</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 34-1</t>
+          <t>서울 종로구 청계천로 85 삼일빌딩 지하1층</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0507-1374-9929</t>
+          <t>0507-1331-4095</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1725956672/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142214741</t>
+          <t>https://pcmap.place.naver.com/restaurant/1619947949/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9871596&amp;y=37.5686402&amp;timestamp=202309071754</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
@@ -2444,12 +2714,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2464,7 +2734,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1228101335/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142215682</t>
+          <t>https://pcmap.place.naver.com/restaurant/1228101335/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00138409999998&amp;y=37.5829010000003&amp;timestamp=202309071754</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:49:45</t>
         </is>
       </c>
     </row>
